--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="156">
   <si>
     <t>Race</t>
   </si>
@@ -474,10 +474,19 @@
     <t>cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestAgency/nc:OrganizationName</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonCriminalHistorySummary/j:RegisteredSexualOffenderIndicator</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport//cscr-ext:Custody/nc:Location[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>Socio-economic Status</t>
+  </si>
+  <si>
+    <t>Text to describe income level of person</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/cscr-ext:PersonSocioEconomicStatusDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:PersonCriminalHistorySummary[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:RegisteredSexualOffenderIndicator</t>
   </si>
 </sst>
 </file>
@@ -2420,11 +2429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L374"/>
+  <dimension ref="A1:L375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD58"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2742,16 +2751,18 @@
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2765,340 +2776,341 @@
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" s="27" customFormat="1">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="75">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" s="27" customFormat="1">
+      <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" ht="42">
-      <c r="A26" s="26"/>
-      <c r="B26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:12" s="27" customFormat="1" ht="42">
       <c r="A27" s="26"/>
       <c r="B27" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="27" customFormat="1" ht="42">
+      <c r="A28" s="26"/>
+      <c r="B28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" ht="75">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28" t="s">
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="75">
+      <c r="A29" s="30"/>
+      <c r="B29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="13" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="27" customFormat="1">
-      <c r="A29" s="31" t="s">
+    <row r="30" spans="1:12" s="27" customFormat="1">
+      <c r="A30" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" ht="28">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="27" customFormat="1" ht="42">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:12" s="27" customFormat="1" ht="28">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="27" customFormat="1" ht="42">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="27" customFormat="1">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:5" s="27" customFormat="1">
+      <c r="A33" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:12" s="27" customFormat="1" ht="42">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" s="27" customFormat="1" ht="42">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="13" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="27" customFormat="1" ht="42">
-      <c r="A34" s="30"/>
-      <c r="B34" s="13" t="s">
+    <row r="35" spans="1:5" s="27" customFormat="1" ht="42">
+      <c r="A35" s="30"/>
+      <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C35" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="13" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="27" customFormat="1">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:5" s="27" customFormat="1">
+      <c r="A36" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:12" s="27" customFormat="1" ht="42">
-      <c r="A36" s="26"/>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" s="27" customFormat="1" ht="42">
+      <c r="A37" s="26"/>
+      <c r="B37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C37" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A37" s="30" t="s">
+    <row r="38" spans="1:5" s="27" customFormat="1" ht="60">
+      <c r="A38" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C38" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A38" s="26" t="s">
+    <row r="39" spans="1:5" s="27" customFormat="1" ht="60">
+      <c r="A39" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E39" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A39" s="26"/>
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="1:5" s="27" customFormat="1" ht="60">
+      <c r="A40" s="26"/>
+      <c r="B40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C40" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E40" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="27" customFormat="1" ht="56">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
+    <row r="41" spans="1:5" s="27" customFormat="1" ht="56">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A41" s="11"/>
-      <c r="B41" s="18" t="s">
+    <row r="42" spans="1:5" s="27" customFormat="1" ht="60">
+      <c r="A42" s="11"/>
+      <c r="B42" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A42" s="11"/>
-      <c r="B42" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="27" customFormat="1" ht="60">
+    <row r="43" spans="1:5" s="27" customFormat="1" ht="60">
       <c r="A43" s="11"/>
       <c r="B43" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="27" customFormat="1" ht="60">
+      <c r="A44" s="11"/>
+      <c r="B44" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A44" s="30" t="s">
+    <row r="45" spans="1:5" s="27" customFormat="1" ht="60">
+      <c r="A45" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B45" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C45" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A45" s="30"/>
-      <c r="B45" s="28" t="s">
+    <row r="46" spans="1:5" s="27" customFormat="1" ht="60">
+      <c r="A46" s="30"/>
+      <c r="B46" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C46" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="5" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="27" customFormat="1" ht="60">
-      <c r="A46" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="27" customFormat="1" ht="45">
+    <row r="47" spans="1:5" s="27" customFormat="1" ht="60">
       <c r="A47" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="27" customFormat="1" ht="45">
+      <c r="A48" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="27" customFormat="1">
-      <c r="A48" s="33" t="s">
+    <row r="49" spans="1:12" s="27" customFormat="1">
+      <c r="A49" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-    </row>
-    <row r="49" spans="1:12" s="27" customFormat="1" ht="45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" s="27" customFormat="1" ht="45">
       <c r="A50" s="26"/>
       <c r="B50" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>123</v>
@@ -3112,16 +3124,16 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="27" customFormat="1" ht="60" customHeight="1">
+    <row r="51" spans="1:12" s="27" customFormat="1" ht="45">
       <c r="A51" s="26"/>
       <c r="B51" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>123</v>
@@ -3135,121 +3147,126 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="27" customFormat="1" ht="133" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:12" s="27" customFormat="1" ht="60" customHeight="1">
+      <c r="A52" s="26"/>
+      <c r="B52" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="27" customFormat="1" ht="133" customHeight="1">
+      <c r="A53" s="30"/>
+      <c r="B53" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="28" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J53" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28" t="s">
+      <c r="K53" s="28"/>
+      <c r="L53" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="27" customFormat="1" ht="45">
-      <c r="A53" s="26" t="s">
+    <row r="54" spans="1:12" s="27" customFormat="1" ht="45">
+      <c r="A54" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B54" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C54" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E54" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27" t="s">
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="27" t="s">
+      <c r="J54" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="27" customFormat="1">
-      <c r="A54" s="33" t="s">
+    <row r="55" spans="1:12" s="27" customFormat="1">
+      <c r="A55" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-    </row>
-    <row r="55" spans="1:12" s="27" customFormat="1" ht="45">
-      <c r="A55" s="30"/>
-      <c r="B55" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-    </row>
-    <row r="56" spans="1:12" s="27" customFormat="1" ht="60">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+    </row>
+    <row r="56" spans="1:12" s="27" customFormat="1" ht="45">
       <c r="A56" s="30"/>
       <c r="B56" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="D56" s="28"/>
       <c r="E56" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="I56" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
     </row>
     <row r="57" spans="1:12" s="27" customFormat="1" ht="60">
       <c r="A57" s="30"/>
       <c r="B57" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="30"/>
@@ -3259,32 +3276,43 @@
       <c r="K57" s="28"/>
       <c r="L57" s="28"/>
     </row>
-    <row r="58" spans="1:12" s="27" customFormat="1" ht="45">
+    <row r="58" spans="1:12" s="27" customFormat="1" ht="60">
       <c r="A58" s="30"/>
-      <c r="B58" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>139</v>
-      </c>
+      <c r="B58" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="E58" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="F58" s="28"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+    <row r="59" spans="1:12" s="27" customFormat="1" ht="45">
+      <c r="A59" s="30"/>
+      <c r="B59" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="28"/>
+      <c r="E59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="9"/>
@@ -4707,7 +4735,7 @@
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
     </row>
-    <row r="263" spans="1:5" hidden="1">
+    <row r="263" spans="1:5">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -4805,7 +4833,7 @@
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -5490,6 +5518,13 @@
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
       <c r="E374" s="9"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="9"/>
+      <c r="B375" s="9"/>
+      <c r="C375" s="9"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40280" yWindow="1980" windowWidth="27200" windowHeight="17940" tabRatio="500"/>
+    <workbookView xWindow="-28860" yWindow="6420" windowWidth="27200" windowHeight="17940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
   <si>
     <t>Race</t>
   </si>
@@ -487,13 +487,62 @@
   </si>
   <si>
     <t>cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:ArrestAgency/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>Unique and Timeless ID</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Will be used only for record matching and will not be included in analytics data store</t>
+  </si>
+  <si>
+    <t>Behavioral Health</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>SMI Indicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Identity[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:PersonAliasIdentityAssociation[nc:Person/@structures:ref=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody//nc:Person/@structures:id]/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Identity[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:PersonAliasIdentityAssociation[nc:Person/@structures:ref=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody//nc:Person/@structures:id]/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Identity[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:PersonAliasIdentityAssociation[nc:Person/@structures:ref=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody//nc:Person/@structures:id]/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonMiddleName</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Identity[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:PersonAliasIdentityAssociation[nc:Person/@structures:ref=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody//nc:Person/@structures:id]/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Identity[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:PersonAliasIdentityAssociation[nc:Person/@structures:ref=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody//nc:Person/@structures:id]/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/j:PersonSexCode</t>
+  </si>
+  <si>
+    <t>cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation/j:Evaluation/j:EvaluationDiagnosisDescriptionText</t>
+  </si>
+  <si>
+    <t>cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation/cscr-ext:SeriousMentalIllnessIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/cscr-ext:PersonPersistentIdentification/nc:IdentificationID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -644,715 +693,732 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="685">
+  <cellStyleXfs count="687">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1361,98 +1427,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="685">
+  <cellStyles count="687">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1795,6 +1873,7 @@
     <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2137,6 +2216,7 @@
     <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2466,11 +2546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L375"/>
+  <dimension ref="A1:L385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2483,7 +2563,7 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1">
+    <row r="1" spans="1:12" s="26" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -2500,7 +2580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -2509,7 +2589,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="28">
+    <row r="3" spans="1:12" ht="28">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -2522,7 +2602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -2535,7 +2615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1">
+    <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="35" t="s">
         <v>22</v>
       </c>
@@ -2548,7 +2628,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
+    <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>23</v>
@@ -2561,7 +2641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1">
+    <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>25</v>
@@ -2574,7 +2654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1">
+    <row r="8" spans="1:12" s="15" customFormat="1">
       <c r="A8" s="35" t="s">
         <v>68</v>
       </c>
@@ -2589,7 +2669,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="42">
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="56">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
         <v>69</v>
@@ -2605,7 +2685,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="34" t="s">
         <v>45</v>
       </c>
@@ -2614,216 +2694,210 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="42">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:12" s="27" customFormat="1" ht="60">
+      <c r="A11" s="40"/>
+      <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="42">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="42">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="42">
+    <row r="13" spans="1:12" ht="42">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="56">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:12" ht="56">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="56">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="56">
+    <row r="16" spans="1:12" ht="56">
       <c r="A16" s="11"/>
       <c r="B16" s="12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="56">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="56">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="56">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>55</v>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="56">
       <c r="A20" s="7"/>
-      <c r="B20" s="12" t="s">
-        <v>57</v>
+      <c r="B20" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="56">
       <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>59</v>
+      <c r="B21" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="42">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>1</v>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="42">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" ht="60">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:12" s="15" customFormat="1" ht="60">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="13" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" s="26" customFormat="1" ht="60">
-      <c r="A24" s="4" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" s="26" customFormat="1" ht="75">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2837,671 +2911,834 @@
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="1:12" s="26" customFormat="1">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:12" s="26" customFormat="1" ht="75">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:12" s="42" customFormat="1">
+      <c r="A27" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" s="26" customFormat="1" ht="90">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="26" customFormat="1" ht="97" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="26" customFormat="1" ht="74" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="26" customFormat="1" ht="72" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="26" customFormat="1" ht="90">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="26" customFormat="1">
+      <c r="A33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:12" s="26" customFormat="1" ht="42">
-      <c r="A27" s="25"/>
-      <c r="B27" s="12" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="42">
+      <c r="A34" s="25"/>
+      <c r="B34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C34" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="10" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="26" customFormat="1" ht="42">
-      <c r="A28" s="25"/>
-      <c r="B28" s="12" t="s">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="42">
+      <c r="A35" s="25"/>
+      <c r="B35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="10" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="26" customFormat="1" ht="75">
-      <c r="A29" s="29"/>
-      <c r="B29" s="27" t="s">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="75">
+      <c r="A36" s="29"/>
+      <c r="B36" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C36" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="12" t="s">
+      <c r="D36" s="27"/>
+      <c r="E36" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="26" customFormat="1">
-      <c r="A30" s="36" t="s">
+    <row r="37" spans="1:10" s="26" customFormat="1">
+      <c r="A37" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" s="26" customFormat="1" ht="28">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="28">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="26" customFormat="1" ht="42">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="42">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="39" customFormat="1" ht="60">
-      <c r="A33" s="37"/>
-      <c r="B33" s="17" t="s">
+    <row r="40" spans="1:10" s="39" customFormat="1" ht="60">
+      <c r="A40" s="37"/>
+      <c r="B40" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C40" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="18" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37" t="s">
+      <c r="F40" s="37"/>
+      <c r="G40" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19" t="s">
+      <c r="H40" s="37"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1">
-      <c r="A34" s="36" t="s">
+    <row r="41" spans="1:10" s="26" customFormat="1">
+      <c r="A41" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="42">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="42">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="12" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="42">
-      <c r="A36" s="29"/>
-      <c r="B36" s="12" t="s">
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="42">
+      <c r="A43" s="29"/>
+      <c r="B43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C43" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="12" t="s">
+      <c r="D43" s="29"/>
+      <c r="E43" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1">
-      <c r="A37" s="32" t="s">
+    <row r="44" spans="1:10" s="26" customFormat="1">
+      <c r="A44" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="42">
-      <c r="A38" s="25"/>
-      <c r="B38" s="12" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+    </row>
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="42">
+      <c r="A45" s="25"/>
+      <c r="B45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C45" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A39" s="29" t="s">
+    <row r="46" spans="1:10" s="26" customFormat="1" ht="60">
+      <c r="A46" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C46" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A40" s="25" t="s">
+    <row r="47" spans="1:10" s="26" customFormat="1" ht="60">
+      <c r="A47" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C47" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A41" s="25"/>
-      <c r="B41" s="4" t="s">
+    <row r="48" spans="1:10" s="26" customFormat="1" ht="60">
+      <c r="A48" s="25"/>
+      <c r="B48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C48" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E48" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="56">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10" t="s">
+    <row r="49" spans="1:12" s="26" customFormat="1" ht="56">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A43" s="10"/>
-      <c r="B43" s="17" t="s">
+    <row r="50" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A50" s="10"/>
+      <c r="B50" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C50" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E50" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A44" s="10"/>
-      <c r="B44" s="26" t="s">
+    <row r="51" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A51" s="10"/>
+      <c r="B51" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C51" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E51" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A45" s="29" t="s">
+    <row r="52" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A52" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B52" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C52" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27" t="s">
+      <c r="D52" s="27"/>
+      <c r="E52" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A46" s="29"/>
-      <c r="B46" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="26" customFormat="1" ht="60">
-      <c r="A47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="26" customFormat="1" ht="45">
-      <c r="A48" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="26" customFormat="1">
-      <c r="A49" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-    </row>
-    <row r="50" spans="1:12" s="26" customFormat="1" ht="45">
-      <c r="A50" s="25"/>
-      <c r="B50" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="26" customFormat="1" ht="45">
-      <c r="A51" s="25"/>
-      <c r="B51" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J51" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="26" customFormat="1" ht="60" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="26" customFormat="1" ht="133" customHeight="1">
+    <row r="53" spans="1:12" s="26" customFormat="1" ht="60">
       <c r="A53" s="29"/>
       <c r="B53" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A54" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="26" customFormat="1" ht="45">
+      <c r="A55" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="26" customFormat="1">
+      <c r="A56" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+    </row>
+    <row r="57" spans="1:12" s="26" customFormat="1" ht="45">
+      <c r="A57" s="25"/>
+      <c r="B57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="26" customFormat="1" ht="45">
+      <c r="A58" s="25"/>
+      <c r="B58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="26" customFormat="1" ht="60" customHeight="1">
+      <c r="A59" s="25"/>
+      <c r="B59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="26" customFormat="1" ht="133" customHeight="1">
+      <c r="A60" s="29"/>
+      <c r="B60" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C60" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27" t="s">
+      <c r="D60" s="27"/>
+      <c r="E60" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="27" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="J53" s="27" t="s">
+      <c r="J60" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27" t="s">
+      <c r="K60" s="27"/>
+      <c r="L60" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="26" customFormat="1" ht="45">
-      <c r="A54" s="25" t="s">
+    <row r="61" spans="1:12" s="26" customFormat="1" ht="45">
+      <c r="A61" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B61" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C61" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E61" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="26" t="s">
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J61" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="26" customFormat="1">
-      <c r="A55" s="32" t="s">
+    <row r="62" spans="1:12" s="26" customFormat="1">
+      <c r="A62" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-    </row>
-    <row r="56" spans="1:12" s="26" customFormat="1" ht="45">
-      <c r="A56" s="29"/>
-      <c r="B56" s="33" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+    </row>
+    <row r="63" spans="1:12" s="26" customFormat="1" ht="45">
+      <c r="A63" s="29"/>
+      <c r="B63" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C63" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="4" t="s">
+      <c r="D63" s="27"/>
+      <c r="E63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="27" t="s">
+      <c r="F63" s="27"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="J56" s="27" t="s">
+      <c r="J63" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="1:12" s="26" customFormat="1" ht="60">
-      <c r="A57" s="29"/>
-      <c r="B57" s="33" t="s">
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A64" s="29"/>
+      <c r="B64" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="4" t="s">
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" s="26" customFormat="1" ht="60">
-      <c r="A58" s="29"/>
-      <c r="B58" s="33" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A65" s="29"/>
+      <c r="B65" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="4" t="s">
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="1:12" s="26" customFormat="1" ht="60">
-      <c r="A59" s="29"/>
-      <c r="B59" s="27" t="s">
+      <c r="F65" s="27"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="1:12" s="26" customFormat="1" ht="60">
+      <c r="A66" s="29"/>
+      <c r="B66" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C66" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="4" t="s">
+      <c r="D66" s="27"/>
+      <c r="E66" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F66" s="4"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" spans="1:12" s="42" customFormat="1" ht="30">
+      <c r="A67" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+    </row>
+    <row r="68" spans="1:12" s="26" customFormat="1" ht="30">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+    </row>
+    <row r="69" spans="1:12" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A69" s="25"/>
+      <c r="B69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:12">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:12">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:12">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:12">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:12">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:12">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:12">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:12">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:12">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:12">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4789,70 +5026,70 @@
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
     </row>
-    <row r="264" spans="1:5" hidden="1">
+    <row r="264" spans="1:5">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
     </row>
-    <row r="265" spans="1:5" hidden="1">
+    <row r="265" spans="1:5">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="1:5" hidden="1">
+    <row r="266" spans="1:5">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
-    <row r="267" spans="1:5" hidden="1">
+    <row r="267" spans="1:5">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
     </row>
-    <row r="268" spans="1:5" hidden="1">
+    <row r="268" spans="1:5">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
     </row>
-    <row r="269" spans="1:5" hidden="1">
+    <row r="269" spans="1:5">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
     </row>
-    <row r="270" spans="1:5" hidden="1">
+    <row r="270" spans="1:5">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="1:5" hidden="1">
+    <row r="271" spans="1:5">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
     </row>
-    <row r="272" spans="1:5" hidden="1">
+    <row r="272" spans="1:5">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
     </row>
-    <row r="273" spans="1:5" hidden="1">
+    <row r="273" spans="1:5">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -4887,70 +5124,70 @@
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -5573,11 +5810,81 @@
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
     </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="8"/>
+      <c r="B376" s="8"/>
+      <c r="C376" s="8"/>
+      <c r="D376" s="8"/>
+      <c r="E376" s="8"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="8"/>
+      <c r="D377" s="8"/>
+      <c r="E377" s="8"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="8"/>
+      <c r="B378" s="8"/>
+      <c r="C378" s="8"/>
+      <c r="D378" s="8"/>
+      <c r="E378" s="8"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="8"/>
+      <c r="B379" s="8"/>
+      <c r="C379" s="8"/>
+      <c r="D379" s="8"/>
+      <c r="E379" s="8"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="8"/>
+      <c r="B380" s="8"/>
+      <c r="C380" s="8"/>
+      <c r="D380" s="8"/>
+      <c r="E380" s="8"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="8"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
+      <c r="D381" s="8"/>
+      <c r="E381" s="8"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="8"/>
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
+      <c r="D382" s="8"/>
+      <c r="E382" s="8"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="8"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="8"/>
+      <c r="D383" s="8"/>
+      <c r="E383" s="8"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="8"/>
+      <c r="B384" s="8"/>
+      <c r="C384" s="8"/>
+      <c r="D384" s="8"/>
+      <c r="E384" s="8"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="8"/>
+      <c r="B385" s="8"/>
+      <c r="C385" s="8"/>
+      <c r="D385" s="8"/>
+      <c r="E385" s="8"/>
+    </row>
   </sheetData>
   <sortState ref="A8:J35">
     <sortCondition ref="E8:E35"/>
   </sortState>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="6420" windowWidth="27200" windowHeight="17940" tabRatio="500"/>
+    <workbookView xWindow="5020" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
   <si>
     <t>Race</t>
   </si>
@@ -529,13 +529,16 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/cscr-ext:PersonPersistentIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>ADD LOCATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -664,6 +667,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1398,7 +1406,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1528,6 +1536,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="687">
@@ -2549,8 +2560,8 @@
   <dimension ref="A1:L385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3542,29 +3553,31 @@
       <c r="K62" s="31"/>
       <c r="L62" s="31"/>
     </row>
-    <row r="63" spans="1:12" s="26" customFormat="1" ht="45">
-      <c r="A63" s="29"/>
-      <c r="B63" s="33" t="s">
+    <row r="63" spans="1:12" s="19" customFormat="1" ht="45">
+      <c r="A63" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="23"/>
+      <c r="E63" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="27" t="s">
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="27" t="s">
+      <c r="J63" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
     </row>
     <row r="64" spans="1:12" s="26" customFormat="1" ht="60">
       <c r="A64" s="29"/>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7000" yWindow="1040" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="174">
   <si>
     <t>Race</t>
   </si>
@@ -297,9 +297,6 @@
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/j:SubjectIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>Supervision Release Date</t>
-  </si>
-  <si>
     <t>A date set for a subject's release</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/cscr-ext:DetentiontImmigrationHoldIndicator</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseDate/nc:DateTime</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionAreaIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -532,6 +526,21 @@
   </si>
   <si>
     <t>ADD LOCATION</t>
+  </si>
+  <si>
+    <t>Supervision Scheduled  Release Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseEligibilityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Actual Release Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Release[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:DateTime</t>
   </si>
 </sst>
 </file>
@@ -717,8 +726,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="687">
+  <cellStyleXfs count="689">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1541,7 +1552,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="687">
+  <cellStyles count="689">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1885,6 +1896,7 @@
     <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2228,6 +2240,7 @@
     <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2557,11 +2570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L385"/>
+  <dimension ref="A1:L387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2688,7 +2701,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="18"/>
@@ -2708,12 +2721,12 @@
     <row r="11" spans="1:12" s="27" customFormat="1" ht="60">
       <c r="A11" s="40"/>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2785,7 +2798,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="56">
@@ -2901,23 +2914,23 @@
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2925,30 +2938,30 @@
     <row r="26" spans="1:12" s="26" customFormat="1" ht="75">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:12" s="42" customFormat="1">
       <c r="A27" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -2972,22 +2985,22 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="26" customFormat="1" ht="97" customHeight="1">
@@ -3000,25 +3013,25 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="26" customFormat="1" ht="74" customHeight="1">
@@ -3031,25 +3044,25 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="26" customFormat="1" ht="72" customHeight="1">
@@ -3062,25 +3075,25 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="26" customFormat="1" ht="90">
@@ -3093,20 +3106,20 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1">
@@ -3128,7 +3141,7 @@
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="42">
@@ -3141,7 +3154,7 @@
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="75">
@@ -3154,7 +3167,7 @@
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1">
@@ -3189,29 +3202,29 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="39" customFormat="1" ht="60">
       <c r="A40" s="37"/>
       <c r="B40" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1">
@@ -3231,7 +3244,7 @@
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="42">
@@ -3244,7 +3257,7 @@
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1">
@@ -3265,7 +3278,7 @@
         <v>36</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="26" customFormat="1" ht="60">
@@ -3280,7 +3293,7 @@
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="26" customFormat="1" ht="60">
@@ -3294,19 +3307,19 @@
         <v>35</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1" ht="60">
       <c r="A48" s="25"/>
       <c r="B48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>93</v>
-      </c>
       <c r="E48" s="27" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="26" customFormat="1" ht="56">
@@ -3319,31 +3332,31 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="26" customFormat="1" ht="60">
       <c r="A50" s="10"/>
       <c r="B50" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="E50" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="26" customFormat="1" ht="60">
       <c r="A51" s="10"/>
       <c r="B51" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>97</v>
-      </c>
       <c r="E51" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="26" customFormat="1" ht="60">
@@ -3358,7 +3371,7 @@
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="26" customFormat="1" ht="60">
@@ -3371,7 +3384,7 @@
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="26" customFormat="1" ht="60">
@@ -3386,7 +3399,7 @@
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="26" customFormat="1" ht="45">
@@ -3401,12 +3414,12 @@
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="26" customFormat="1">
       <c r="A56" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -3423,96 +3436,96 @@
     <row r="57" spans="1:12" s="26" customFormat="1" ht="45">
       <c r="A57" s="25"/>
       <c r="B57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="E57" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="26" customFormat="1" ht="45">
       <c r="A58" s="25"/>
       <c r="B58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>104</v>
-      </c>
       <c r="E58" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="26" customFormat="1" ht="60" customHeight="1">
       <c r="A59" s="25"/>
       <c r="B59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="E59" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="26" customFormat="1" ht="133" customHeight="1">
       <c r="A60" s="29"/>
       <c r="B60" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>108</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J60" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K60" s="27"/>
       <c r="L60" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="26" customFormat="1" ht="45">
@@ -3520,26 +3533,26 @@
         <v>34</v>
       </c>
       <c r="B61" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>111</v>
-      </c>
       <c r="E61" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="26" customFormat="1">
       <c r="A62" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -3555,26 +3568,26 @@
     </row>
     <row r="63" spans="1:12" s="19" customFormat="1" ht="45">
       <c r="A63" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B63" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="23" t="s">
         <v>113</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>114</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
@@ -3582,12 +3595,12 @@
     <row r="64" spans="1:12" s="26" customFormat="1" ht="60">
       <c r="A64" s="29"/>
       <c r="B64" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="29"/>
@@ -3600,12 +3613,12 @@
     <row r="65" spans="1:12" s="26" customFormat="1" ht="60">
       <c r="A65" s="29"/>
       <c r="B65" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="29"/>
@@ -3618,14 +3631,14 @@
     <row r="66" spans="1:12" s="26" customFormat="1" ht="60">
       <c r="A66" s="29"/>
       <c r="B66" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="29"/>
@@ -3635,65 +3648,85 @@
       <c r="K66" s="27"/>
       <c r="L66" s="27"/>
     </row>
-    <row r="67" spans="1:12" s="42" customFormat="1" ht="30">
-      <c r="A67" s="35" t="s">
+    <row r="67" spans="1:12" s="26" customFormat="1">
+      <c r="A67" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+    </row>
+    <row r="68" spans="1:12" s="26" customFormat="1" ht="45">
+      <c r="A68" s="29"/>
+      <c r="B68" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="1:12" s="42" customFormat="1" ht="30">
+      <c r="A69" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+    </row>
+    <row r="70" spans="1:12" s="26" customFormat="1" ht="30">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+    </row>
+    <row r="71" spans="1:12" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A71" s="25"/>
+      <c r="B71" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-    </row>
-    <row r="68" spans="1:12" s="26" customFormat="1" ht="30">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-    </row>
-    <row r="69" spans="1:12" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="8"/>
@@ -5109,14 +5142,14 @@
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
     </row>
-    <row r="274" spans="1:5" hidden="1">
+    <row r="274" spans="1:5">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
     </row>
-    <row r="275" spans="1:5" hidden="1">
+    <row r="275" spans="1:5">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -5207,14 +5240,14 @@
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -5892,6 +5925,20 @@
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="8"/>
+      <c r="B386" s="8"/>
+      <c r="C386" s="8"/>
+      <c r="D386" s="8"/>
+      <c r="E386" s="8"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="8"/>
+      <c r="B387" s="8"/>
+      <c r="C387" s="8"/>
+      <c r="D387" s="8"/>
+      <c r="E387" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">
